--- a/artfynd/A 18280-2021 artfynd.xlsx
+++ b/artfynd/A 18280-2021 artfynd.xlsx
@@ -1028,7 +1028,7 @@
         <v>130814861</v>
       </c>
       <c r="B5" t="n">
-        <v>91291</v>
+        <v>91295</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>

--- a/artfynd/A 18280-2021 artfynd.xlsx
+++ b/artfynd/A 18280-2021 artfynd.xlsx
@@ -1028,7 +1028,7 @@
         <v>130814861</v>
       </c>
       <c r="B5" t="n">
-        <v>91295</v>
+        <v>91296</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
